--- a/model_exports/labels/2.0_False_False_5_2.xlsx
+++ b/model_exports/labels/2.0_False_False_5_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C736"/>
+  <dimension ref="A1:C733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-675691648802795522</t>
+          <t>t-793443964900737024</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -466,20 +466,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-729342722264420352</t>
+          <t>t-933792655041064962</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-933792655041064962</t>
+          <t>t-494463913853874176</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-498854240069373953</t>
+          <t>t-494829977268146176</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-498919835905327104</t>
+          <t>t-495010606047821824</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-495123711071387649</t>
+          <t>t-495017350790668289</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-577847446270832640</t>
+          <t>t-495805012929708033</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-690710236638777344</t>
+          <t>t-511851013155090432</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-690724653006921728</t>
+          <t>t-512006361937616896</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-706805466739949568</t>
+          <t>t-512017939579432960</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -583,7 +583,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-833214575512150018</t>
+          <t>t-610974241895354368</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,7 +596,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-498526651912032258</t>
+          <t>t-706805466739949568</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,37 +609,37 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-498546619508609024</t>
+          <t>t-760665387113472001</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-498600191088271361</t>
+          <t>t-760674522622152704</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-498638581536399361</t>
+          <t>t-887418286014570496</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -648,11 +648,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-498641690949713920</t>
+          <t>t-900499401638129664</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -661,46 +661,46 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-498643083517767681</t>
+          <t>t-900502092674215936</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-498648204872015872</t>
+          <t>t-1016827484665499650</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-521738184288251906</t>
+          <t>t-1016832637904695296</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-521768704259162112</t>
+          <t>t-1032695855143370753</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -713,20 +713,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-585505175835648000</t>
+          <t>t-1033108055162941440</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-601392774370340865</t>
+          <t>t-573511311906115584</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,7 +739,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-648290405872627712</t>
+          <t>t-573530576818434048</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,33 +752,33 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-658615758751211520</t>
+          <t>t-701855843747241986</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-658616745809330176</t>
+          <t>t-738281921046675456</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-658617481574092800</t>
+          <t>t-738404067647455232</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -791,7 +791,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-765195503457882112</t>
+          <t>t-738429326224302080</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -804,11 +804,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-765297031346655232</t>
+          <t>t-738429350467543044</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -817,20 +817,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-771105696226025472</t>
+          <t>t-773705145389645824</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-773705145389645824</t>
+          <t>t-826627277026791424</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,59 +843,59 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-815615714082095105</t>
+          <t>t-871116400701706241</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-816012131535613952</t>
+          <t>t-871834189787791364</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-816043428630839296</t>
+          <t>t-872075702203559936</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-816046695377158145</t>
+          <t>t-872158265681096708</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-816056629867188225</t>
+          <t>t-889549980888969217</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -908,20 +908,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-816367923770118149</t>
+          <t>t-889892042435854336</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-816380623434592257</t>
+          <t>t-890080777769283584</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,7 +934,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-887086137789091841</t>
+          <t>t-918248158253273089</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,11 +947,11 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-889549980888969217</t>
+          <t>t-937797554313551873</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -960,11 +960,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-889892042435854336</t>
+          <t>t-937878737382772737</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -973,20 +973,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-890080777769283584</t>
+          <t>t-938887720075702272</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-910935192742842370</t>
+          <t>t-945777508007464961</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -999,20 +999,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-911026776717103105</t>
+          <t>t-970872683402539011</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-924109747627929600</t>
+          <t>t-1003697920015851520</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1025,7 +1025,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-950310866641149952</t>
+          <t>t-1006110887999045632</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1038,7 +1038,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-985145363618246656</t>
+          <t>t-1006321460951027717</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1051,11 +1051,11 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-985306564868354049</t>
+          <t>t-499691919128018944</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1064,20 +1064,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-1000042512319483904</t>
+          <t>t-812540411746975744</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-1000115343019343872</t>
+          <t>t-778024515909537792</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1090,7 +1090,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-1000762573766184961</t>
+          <t>t-925753092301295616</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,20 +1103,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-1001659726067830785</t>
+          <t>t-573406774969044992</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-1018804138195513344</t>
+          <t>t-573566918876995584</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1129,33 +1129,33 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-1018807229267496962</t>
+          <t>t-574621995633111040</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-1018819644377923585</t>
+          <t>t-637507255093624832</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-1018962868379750402</t>
+          <t>t-637635998185320448</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1168,20 +1168,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-1019003195874512897</t>
+          <t>t-638007752250396672</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-1019014466770333697</t>
+          <t>t-730338940872445952</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1194,11 +1194,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-1019698120098222080</t>
+          <t>t-731342823132274688</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1207,11 +1207,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-1060177367417655297</t>
+          <t>t-744529744385892352</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -1220,11 +1220,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-1060184735106781189</t>
+          <t>t-744534982144757760</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -1233,33 +1233,33 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-1060185768549908480</t>
+          <t>t-753035409660186624</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-1060186673835900928</t>
+          <t>t-770981711182237696</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-1060281450493136896</t>
+          <t>t-835997827369156608</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1272,11 +1272,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-1060341719915470848</t>
+          <t>t-852681395487035392</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1285,7 +1285,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-1060518882832658433</t>
+          <t>t-745595825670131714</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1298,20 +1298,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-1060908480901640192</t>
+          <t>t-745600923448258560</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-875896081233567744</t>
+          <t>t-764602141449170944</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1324,24 +1324,24 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-975411428663345152</t>
+          <t>t-858084101320056832</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-922536592429993985</t>
+          <t>t-858490544007327747</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-934407049034846208</t>
+          <t>t-639446444949180417</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1363,11 +1363,11 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-538622557084082176</t>
+          <t>t-717023541078728704</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -1376,24 +1376,24 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-582884078073987072</t>
+          <t>t-745031440031694848</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-582893069168611328</t>
+          <t>t-747995724978192384</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -1402,24 +1402,24 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-591245619513163777</t>
+          <t>t-752623570010812416</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-594694315915350017</t>
+          <t>t-752689111933214722</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -1428,7 +1428,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-606774570255654912</t>
+          <t>t-752696262009450496</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1441,72 +1441,72 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-739238212518957060</t>
+          <t>t-752724839081791488</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-739379635675271168</t>
+          <t>t-999634090503569409</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-835997827369156608</t>
+          <t>t-548325093256884224</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-924921911510949890</t>
+          <t>t-1018620410819219456</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-924939317381758976</t>
+          <t>t-567811309744705538</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-925210606361300992</t>
+          <t>t-585851418843615232</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1519,11 +1519,11 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-925257914817892352</t>
+          <t>t-770209564532674560</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -1532,33 +1532,33 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-1047054739547013120</t>
+          <t>t-927521858815131648</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-1047068713986547712</t>
+          <t>t-981162868749033472</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-1047079117244399617</t>
+          <t>t-981305166392692736</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1571,20 +1571,20 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-1047083573738500096</t>
+          <t>t-981306180961275904</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-979396065278427139</t>
+          <t>t-672497431242756096</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1597,46 +1597,46 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-621832039763849218</t>
+          <t>t-921072406919352320</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-621845142903754752</t>
+          <t>t-921102349552275456</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-676063553162379265</t>
+          <t>t-921122924505026560</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-710560200558653440</t>
+          <t>t-921266455856939008</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,7 +1649,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-717023541078728704</t>
+          <t>t-921341244332113926</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,7 +1662,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-756129418616139777</t>
+          <t>t-921699631360176128</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1675,59 +1675,59 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-773307883878363136</t>
+          <t>t-973959709605662721</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-824338590389960704</t>
+          <t>t-973962375287246848</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-917079758076370946</t>
+          <t>t-973995114065465345</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-511616761545121792</t>
+          <t>t-974310620169474048</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-513123960192794624</t>
+          <t>t-536361968840769536</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1740,11 +1740,11 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-585851418843615232</t>
+          <t>t-552005598615597057</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -1753,50 +1753,50 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-878362748232622081</t>
+          <t>t-552017511018168320</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-981162868749033472</t>
+          <t>t-552021252442169344</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-981305166392692736</t>
+          <t>t-552065463610802176</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-981306180961275904</t>
+          <t>t-552468777791524864</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-1000477141224558594</t>
+          <t>t-568441199297761281</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1818,24 +1818,24 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-1005217349610426371</t>
+          <t>t-568878359158984704</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-681802042885697536</t>
+          <t>t-575924078906904576</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -1844,33 +1844,33 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-682128192019234816</t>
+          <t>t-926892709188702208</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-682147581405859841</t>
+          <t>t-1042485319055155201</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-682223092198936576</t>
+          <t>t-1047112720837951488</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1883,7 +1883,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-682287065824931840</t>
+          <t>t-1047367778901090304</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1896,7 +1896,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-682459381347254272</t>
+          <t>t-540871484869472256</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1909,11 +1909,11 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-682632199527641089</t>
+          <t>t-665687399033397248</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-682755737790099456</t>
+          <t>t-928583361618169856</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1935,33 +1935,33 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-682908634020470785</t>
+          <t>t-833840054363619329</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-682915879026339840</t>
+          <t>t-936531630868529152</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-683017640638582784</t>
+          <t>t-760723550810628097</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1974,11 +1974,11 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-683036658942513152</t>
+          <t>t-1044757925414273025</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-683077568287866880</t>
+          <t>t-1044770473932816384</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2000,50 +2000,50 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-683235960692314112</t>
+          <t>t-625832003070509056</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-683258563628777472</t>
+          <t>t-626848405877301248</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-683386799184543745</t>
+          <t>t-657221044642684928</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-683399457254326272</t>
+          <t>t-873219337427062785</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -2052,37 +2052,37 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-683602691965206528</t>
+          <t>t-985892254756884480</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-683628764622905344</t>
+          <t>t-1022207950511923200</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-683644184683753472</t>
+          <t>t-658242856386187264</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
@@ -2091,7 +2091,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-683649428587155456</t>
+          <t>t-902218968345272321</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2104,50 +2104,50 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-683773064040050688</t>
+          <t>t-1014543719205400576</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-683968472968228864</t>
+          <t>t-1014578901966876672</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-683979793273065473</t>
+          <t>t-907490044335636480</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-684007082555748352</t>
+          <t>t-1031211148908081152</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -2156,50 +2156,50 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-684323489562558465</t>
+          <t>t-618586257753374720</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-685408547975331840</t>
+          <t>t-745905684248694789</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-950852460532428800</t>
+          <t>t-745992462448140288</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-953648628647706624</t>
+          <t>t-746083614291562497</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-536361968840769536</t>
+          <t>t-766291748704423936</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,46 +2221,46 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-638954151821594624</t>
+          <t>t-782264769742934016</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-639060084857929728</t>
+          <t>t-886294080040423425</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-783792055160082432</t>
+          <t>t-917499339278254080</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-871833381906067459</t>
+          <t>t-972059634101047296</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -2273,7 +2273,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-887680971797131264</t>
+          <t>t-621875663901863937</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2286,7 +2286,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-887683274591662080</t>
+          <t>t-756982430985166848</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2299,33 +2299,33 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-887690953800253442</t>
+          <t>t-756983738035077120</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-887715764404449281</t>
+          <t>t-757172169029804034</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-887751540173414404</t>
+          <t>t-1036699556560470016</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,20 +2338,20 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-887923666507489280</t>
+          <t>t-636384018599030785</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-887928668626055169</t>
+          <t>t-860938986382135296</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -2364,24 +2364,24 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-887976731767918592</t>
+          <t>t-861076485599354880</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-888083621801844737</t>
+          <t>t-941641219024748544</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -2390,7 +2390,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-1047112720837951488</t>
+          <t>t-962803499766513664</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -2403,7 +2403,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-1047367778901090304</t>
+          <t>t-992484226795823105</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -2416,7 +2416,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-540871484869472256</t>
+          <t>t-994221853211267073</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -2429,24 +2429,24 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-552038248218767360</t>
+          <t>t-1003953189820010496</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-552266751304798209</t>
+          <t>t-671936284651196416</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -2455,7 +2455,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-936531630868529152</t>
+          <t>t-899745107900940288</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -2468,111 +2468,111 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-560163999057448960</t>
+          <t>t-899747204986019844</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-1044757925414273025</t>
+          <t>t-780856348493832192</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-1044770473932816384</t>
+          <t>t-799981773354463232</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-622526710358114306</t>
+          <t>t-799998393695305728</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-625832003070509056</t>
+          <t>t-800091318642950144</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-626848405877301248</t>
+          <t>t-977485288892059648</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-752638920505131008</t>
+          <t>t-889517070559334400</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-873219337427062785</t>
+          <t>t-1039228208804233216</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-879367414802153472</t>
+          <t>t-1044637096198041600</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2585,33 +2585,33 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-961384199684001793</t>
+          <t>t-924790802882146304</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-985892254756884480</t>
+          <t>t-863311681820258304</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-578289267857891328</t>
+          <t>t-599936713796886528</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2624,7 +2624,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-594613009575579649</t>
+          <t>t-635524506925314049</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2637,20 +2637,20 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-886294080040423425</t>
+          <t>t-652481072199036928</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-891497407179104257</t>
+          <t>t-715206020902084609</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2663,11 +2663,11 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-948592886060380161</t>
+          <t>t-715208550243557376</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
         <v>1</v>
@@ -2676,24 +2676,24 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-973190028435353600</t>
+          <t>t-715210823002562560</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-979726568175165440</t>
+          <t>t-715215011178803200</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
         <v>1</v>
@@ -2702,20 +2702,20 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-987005505154535425</t>
+          <t>t-745382805253677057</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-621875663901863937</t>
+          <t>t-752596726066843648</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2728,20 +2728,20 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-1036699556560470016</t>
+          <t>t-753413745230094338</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-834484332148297728</t>
+          <t>t-815857432882769920</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2754,11 +2754,11 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-988107827615952898</t>
+          <t>t-816077181575106560</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -2767,11 +2767,11 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-694715871097278464</t>
+          <t>t-858067034772566016</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
         <v>1</v>
@@ -2780,7 +2780,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-883046827251179521</t>
+          <t>t-858109132586483713</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2793,37 +2793,37 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-883048887786909698</t>
+          <t>t-956329812573945857</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-883064523128791040</t>
+          <t>t-992252736560222210</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-883077275679432704</t>
+          <t>t-1009549219240308737</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
         <v>1</v>
@@ -2832,11 +2832,11 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-883080365442838528</t>
+          <t>t-1016477854391992320</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-883215183442739200</t>
+          <t>t-1026272267364253698</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2858,76 +2858,76 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-734825704412446721</t>
+          <t>t-561309176475824128</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-734826990281187328</t>
+          <t>t-593171698846830592</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-743015826601697281</t>
+          <t>t-646027426347155456</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-748127558550560768</t>
+          <t>t-750893641632063488</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-758205502480388096</t>
+          <t>t-756927547049320448</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-758575120290091008</t>
+          <t>t-763041051426775040</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
         <v>1</v>
@@ -2936,20 +2936,20 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-780856348493832192</t>
+          <t>t-763066608868794368</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-829201577370075136</t>
+          <t>t-763135787424636928</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,20 +2962,20 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-829349939947925504</t>
+          <t>t-1029525697382047746</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-829364075721326592</t>
+          <t>t-1029541696839798791</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2988,33 +2988,33 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-829412936661815299</t>
+          <t>t-1029769212384948225</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-1029734360872771584</t>
+          <t>t-534896855906537472</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-860527262709493760</t>
+          <t>t-761355220198756352</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -3027,7 +3027,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-889517070559334400</t>
+          <t>t-761372714925891586</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3040,89 +3040,89 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-1039228208804233216</t>
+          <t>t-569509595133173761</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-985241133159796736</t>
+          <t>t-586160130313625600</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-514175192319680513</t>
+          <t>t-616575922674769920</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-692385146725646340</t>
+          <t>t-616694572853256192</t>
         </is>
       </c>
       <c r="B204" t="n">
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-911670405483651072</t>
+          <t>t-630004911024046080</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-536338799517634560</t>
+          <t>t-630051857654751232</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-737800453916897280</t>
+          <t>t-630833400857919488</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-757613409047343105</t>
+          <t>t-732832771106865153</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3144,11 +3144,11 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-780146894357929984</t>
+          <t>t-775760180936048640</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
@@ -3157,11 +3157,11 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-785997107094093825</t>
+          <t>t-775760740204552192</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
@@ -3170,11 +3170,11 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-794700824404430848</t>
+          <t>t-775766510182731776</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
@@ -3183,7 +3183,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-821459572263100416</t>
+          <t>t-775772257327128576</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -3196,20 +3196,20 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-870028367990599681</t>
+          <t>t-775805122920189952</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-894616667350872064</t>
+          <t>t-776165588917944320</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -3222,7 +3222,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-895668017060651009</t>
+          <t>t-802968858214760448</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -3235,33 +3235,33 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-900495545885757441</t>
+          <t>t-802970857136123904</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-900708018983227393</t>
+          <t>t-802986234171768832</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-911712205657317376</t>
+          <t>t-802996470555279360</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -3274,33 +3274,33 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-956329812573945857</t>
+          <t>t-803023904860151808</t>
         </is>
       </c>
       <c r="B219" t="n">
         <v>1</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-1016477854391992320</t>
+          <t>t-803063479473176576</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-1026272267364253698</t>
+          <t>t-803165461336555521</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -3313,37 +3313,37 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-1036976718718881793</t>
+          <t>t-803184972723081216</t>
         </is>
       </c>
       <c r="B222" t="n">
         <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-533407970244456448</t>
+          <t>t-803191488880513024</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-760920272639852545</t>
+          <t>t-803213114628014080</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -3352,7 +3352,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-760967260039106560</t>
+          <t>t-803415757417758721</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -3365,20 +3365,20 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-760972532421984261</t>
+          <t>t-804486553280069633</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-760978989359833088</t>
+          <t>t-856624832292827137</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3391,20 +3391,20 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-761017815637696513</t>
+          <t>t-972048308909826048</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-761048712214818816</t>
+          <t>t-986933673697120257</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,33 +3417,33 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-761049587066867712</t>
+          <t>t-1026228357996969984</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-761050328493985794</t>
+          <t>t-1039508390869786629</t>
         </is>
       </c>
       <c r="B231" t="n">
         <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-761057847262142465</t>
+          <t>t-1039553624345661440</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,11 +3456,11 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-891394338445553666</t>
+          <t>t-1039619721644191744</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233" t="n">
         <v>1</v>
@@ -3469,11 +3469,11 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-891401235391066112</t>
+          <t>t-1052331593933688832</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -3482,11 +3482,11 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-891671460804259840</t>
+          <t>t-1052814538419003392</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C235" t="n">
         <v>1</v>
@@ -3495,7 +3495,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-891695041609162754</t>
+          <t>t-1052930779947393024</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -3508,7 +3508,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-892069950281711617</t>
+          <t>t-1052972300667146241</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -3521,7 +3521,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-892901315642146816</t>
+          <t>t-1053005694822207488</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -3534,20 +3534,20 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-1004794708802048002</t>
+          <t>t-1053014697077817346</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-534896855906537472</t>
+          <t>t-1053091674438725632</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -3560,7 +3560,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-673774894543470592</t>
+          <t>t-1053211878921568256</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -3573,7 +3573,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-673911765848035328</t>
+          <t>t-1053220103070932992</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -3586,20 +3586,20 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-1050781684117987329</t>
+          <t>t-1053451825607774209</t>
         </is>
       </c>
       <c r="B243" t="n">
         <v>1</v>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-577773253898477568</t>
+          <t>t-1053915265375834112</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -3612,20 +3612,20 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-577808831918579712</t>
+          <t>t-538818433920827392</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-580289963599765504</t>
+          <t>t-910953097316376576</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -3638,11 +3638,11 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-647384012202356736</t>
+          <t>t-910955895714123776</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -3651,7 +3651,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-648159002224914436</t>
+          <t>t-817123537488084993</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -3664,7 +3664,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-648232794137718784</t>
+          <t>t-836430214368481288</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -3677,11 +3677,11 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-648426685910618112</t>
+          <t>t-702894496737071105</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
@@ -3690,20 +3690,20 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-708952691926548480</t>
+          <t>t-578199507671904256</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-716748651113091072</t>
+          <t>t-578943021716250624</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -3716,7 +3716,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-716774298296389632</t>
+          <t>t-581325099023892480</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -3729,11 +3729,11 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-721969035412422656</t>
+          <t>t-581326319130116096</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -3742,63 +3742,63 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-722671206881746944</t>
+          <t>t-581406863343779840</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-739781293882347520</t>
+          <t>t-581587820248109056</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-745683270160027648</t>
+          <t>t-933464546110529538</t>
         </is>
       </c>
       <c r="B257" t="n">
         <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-757849369496301569</t>
+          <t>t-610512692353310721</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-758572772490637312</t>
+          <t>t-610555659969409025</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259" t="n">
         <v>1</v>
@@ -3807,11 +3807,11 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-799654742746165248</t>
+          <t>t-686490326228402176</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C260" t="n">
         <v>1</v>
@@ -3820,46 +3820,46 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-972048308909826048</t>
+          <t>t-687307828932030464</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-1057289433236545538</t>
+          <t>t-698124151282864129</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-754470366408507392</t>
+          <t>t-698267386730975232</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-910953097316376576</t>
+          <t>t-698288943490535428</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3872,7 +3872,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-910955895714123776</t>
+          <t>t-698457478183301120</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3885,7 +3885,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-545590349045833728</t>
+          <t>t-698469723680464897</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3898,11 +3898,11 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-659041979200880644</t>
+          <t>t-698599200850898944</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267" t="n">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-833086724096028673</t>
+          <t>t-698812315353903104</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,7 +3924,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-836430214368481288</t>
+          <t>t-800018818399694848</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3937,24 +3937,24 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-549835920762220544</t>
+          <t>t-800716652195282946</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-655077150693990401</t>
+          <t>t-854766668387684352</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
@@ -3963,7 +3963,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-581325099023892480</t>
+          <t>t-855160087563907072</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3976,20 +3976,20 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-581326319130116096</t>
+          <t>t-855212425251086337</t>
         </is>
       </c>
       <c r="B273" t="n">
         <v>1</v>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-581406863343779840</t>
+          <t>t-884449137407791104</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -4002,7 +4002,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-581587820248109056</t>
+          <t>t-885109132638003200</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -4015,33 +4015,33 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-755764875155083264</t>
+          <t>t-885140571232374784</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-803598066133573632</t>
+          <t>t-885166687825350662</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-811342708061024256</t>
+          <t>t-885188751936417793</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,11 +4054,11 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-697026011876233216</t>
+          <t>t-981529575271337984</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -4067,24 +4067,24 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-791567733695606784</t>
+          <t>t-1049061003617607680</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-668121380727226368</t>
+          <t>t-1049351090909667329</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C281" t="n">
         <v>1</v>
@@ -4093,7 +4093,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-788874378666737664</t>
+          <t>t-1050209065153036288</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,7 +4106,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-981529575271337984</t>
+          <t>t-571711350180868097</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -4119,33 +4119,33 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-984138305477505025</t>
+          <t>t-741029103147442176</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-1049061003617607680</t>
+          <t>t-901999787855228933</t>
         </is>
       </c>
       <c r="B285" t="n">
         <v>1</v>
       </c>
       <c r="C285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-1049351090909667329</t>
+          <t>t-902015237951549441</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -4158,33 +4158,33 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-1050209065153036288</t>
+          <t>t-995839519449640960</t>
         </is>
       </c>
       <c r="B287" t="n">
         <v>1</v>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-645024639639535616</t>
+          <t>t-573281947792883712</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-648439576441171968</t>
+          <t>t-599363330575364096</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4197,37 +4197,37 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-649621017187512320</t>
+          <t>t-839501967894405121</t>
         </is>
       </c>
       <c r="B290" t="n">
         <v>1</v>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-651859489713291264</t>
+          <t>t-839604530048299008</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-652540388272553984</t>
+          <t>t-884636889948471296</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C292" t="n">
         <v>1</v>
@@ -4236,37 +4236,37 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-652542102539235329</t>
+          <t>t-1033036271491461120</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-892449776129777665</t>
+          <t>t-1057298961642471425</t>
         </is>
       </c>
       <c r="B294" t="n">
         <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-892462041277091840</t>
+          <t>t-575443997050691585</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
         <v>1</v>
@@ -4275,20 +4275,20 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-892471980875808773</t>
+          <t>t-1050145290718564352</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-892472490483646466</t>
+          <t>t-821077876112035840</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -4301,24 +4301,24 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-892606487482089472</t>
+          <t>t-821090113476325376</t>
         </is>
       </c>
       <c r="B298" t="n">
         <v>1</v>
       </c>
       <c r="C298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-892633367342088192</t>
+          <t>t-935929183758356480</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C299" t="n">
         <v>1</v>
@@ -4327,7 +4327,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-892700840817045504</t>
+          <t>t-580101390820876288</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -4340,11 +4340,11 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-892731725897281538</t>
+          <t>t-580474226571915265</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C301" t="n">
         <v>1</v>
@@ -4353,7 +4353,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-573279947445420034</t>
+          <t>t-581395014502191104</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -4366,11 +4366,11 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-763085869045653505</t>
+          <t>t-822759706078969856</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C303" t="n">
         <v>1</v>
@@ -4379,20 +4379,20 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-763088808799797248</t>
+          <t>t-822817083591446532</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-887004122628710405</t>
+          <t>t-1042391419745435648</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -4405,7 +4405,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-887017424306008065</t>
+          <t>t-878774409280016384</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -4418,33 +4418,33 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-889534953825779712</t>
+          <t>t-910191038052077569</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-889639312169500672</t>
+          <t>t-992231007083421698</t>
         </is>
       </c>
       <c r="B308" t="n">
         <v>0</v>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-960911174505238534</t>
+          <t>t-992892560405250048</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -4457,7 +4457,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-821077876112035840</t>
+          <t>t-629437596280750080</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -4470,33 +4470,33 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-821090113476325376</t>
+          <t>t-643571264011898881</t>
         </is>
       </c>
       <c r="B311" t="n">
         <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-935929183758356480</t>
+          <t>t-646070620120215552</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-1042391419745435648</t>
+          <t>t-671722697408290816</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -4509,20 +4509,20 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-599007393494605824</t>
+          <t>t-677918822104473600</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-599125027116568576</t>
+          <t>t-765678719205724160</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -4535,24 +4535,24 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-851578277311373312</t>
+          <t>t-981921278876684288</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-860258475883937792</t>
+          <t>t-653702331221999616</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C317" t="n">
         <v>1</v>
@@ -4561,11 +4561,11 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-992231007083421698</t>
+          <t>t-660109346915770368</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C318" t="n">
         <v>1</v>
@@ -4574,20 +4574,20 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-992892560405250048</t>
+          <t>t-660117216885477376</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-1041460734738063360</t>
+          <t>t-660467638917660672</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -4600,33 +4600,33 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-1041507023660081152</t>
+          <t>t-661127792231321600</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-639100384343101440</t>
+          <t>t-794366500865982467</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-643571264011898881</t>
+          <t>t-803284826191171584</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -4639,20 +4639,20 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-765678719205724160</t>
+          <t>t-1001848606427697153</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-895489338364055553</t>
+          <t>t-679420394223345665</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -4665,11 +4665,11 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-983744396364480512</t>
+          <t>t-954775347962241025</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C326" t="n">
         <v>1</v>
@@ -4678,11 +4678,11 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-659172274482733056</t>
+          <t>t-954792612103442432</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C327" t="n">
         <v>1</v>
@@ -4691,11 +4691,11 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-659184469690175488</t>
+          <t>t-954866409300987904</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C328" t="n">
         <v>1</v>
@@ -4704,7 +4704,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-660109346915770368</t>
+          <t>t-716262349536149504</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -4717,24 +4717,24 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-660117216885477376</t>
+          <t>t-981289690258071552</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-660467638917660672</t>
+          <t>t-725708603060031489</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -4743,7 +4743,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-886426015374946304</t>
+          <t>t-1009997647032344576</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,20 +4756,20 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-919294420465229824</t>
+          <t>t-1046763431649574912</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-1027575306226475008</t>
+          <t>t-753754552936136704</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -4782,72 +4782,72 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-753352623630278664</t>
+          <t>t-946020250805514240</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-762742863394254850</t>
+          <t>t-764984507686490112</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-668278058953084928</t>
+          <t>t-998557475266859013</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-677631116958896129</t>
+          <t>t-999117713749495808</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-910172109506273280</t>
+          <t>t-895778141523894272</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-733752725972746240</t>
+          <t>t-915593286122950656</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -4860,7 +4860,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-733764949433012224</t>
+          <t>t-915603421222309888</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -4873,20 +4873,20 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-1025467650649014283</t>
+          <t>t-915603564743073792</t>
         </is>
       </c>
       <c r="B342" t="n">
         <v>1</v>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-1025523844994412544</t>
+          <t>t-922899400032178176</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -4899,7 +4899,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-1025538626191380480</t>
+          <t>t-922934157185110016</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -4912,11 +4912,11 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-1026286692037222401</t>
+          <t>t-779013669589884928</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C345" t="n">
         <v>1</v>
@@ -4925,33 +4925,33 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-1026301775203037184</t>
+          <t>t-797647100565716992</t>
         </is>
       </c>
       <c r="B346" t="n">
         <v>1</v>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-1026820332710252544</t>
+          <t>t-797655572573143040</t>
         </is>
       </c>
       <c r="B347" t="n">
         <v>1</v>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-1027725663703363584</t>
+          <t>t-797814805772046336</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -4964,7 +4964,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-946020250805514240</t>
+          <t>t-803919035318628352</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,7 +4977,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-971386931857772544</t>
+          <t>t-804312701002457088</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,7 +4990,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-864828748495020032</t>
+          <t>t-849301263959420929</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -5003,46 +5003,46 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-796435007673946112</t>
+          <t>t-1026649986782650369</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-796529318373584896</t>
+          <t>t-974764041968132096</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-796701113995104256</t>
+          <t>t-974840717116956673</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-796745584795389952</t>
+          <t>t-1042065710745309186</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -5055,50 +5055,50 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-812266777711431682</t>
+          <t>t-1043080309376466944</t>
         </is>
       </c>
       <c r="B356" t="n">
         <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-814469186323939328</t>
+          <t>t-1043179210905464832</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-848851618011525120</t>
+          <t>t-616316575658807296</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-1049947970664304640</t>
+          <t>t-673357306764140544</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C359" t="n">
         <v>1</v>
@@ -5107,11 +5107,11 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-814665332673703936</t>
+          <t>t-708340740556980225</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360" t="n">
         <v>1</v>
@@ -5120,20 +5120,20 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-814669018061803521</t>
+          <t>t-881960500829016064</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-863757133304795136</t>
+          <t>t-927695512287043584</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -5146,24 +5146,24 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-860879398387556352</t>
+          <t>t-941194598453571586</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-966639239407525888</t>
+          <t>t-965605976698126341</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C364" t="n">
         <v>1</v>
@@ -5172,33 +5172,33 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-906573891346165760</t>
+          <t>t-1022200671666401281</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-1026649986782650369</t>
+          <t>t-513212132176175105</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-955145334002417666</t>
+          <t>t-519370037812277248</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -5211,11 +5211,11 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-1034792477096652801</t>
+          <t>t-538351189679939584</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C368" t="n">
         <v>1</v>
@@ -5224,24 +5224,24 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-1042065710745309186</t>
+          <t>t-642734533335453700</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-1043080309376466944</t>
+          <t>t-661802861446209536</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C370" t="n">
         <v>1</v>
@@ -5250,59 +5250,59 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-1043179210905464832</t>
+          <t>t-773146400129441792</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-588767869539733506</t>
+          <t>t-786070938412515329</t>
         </is>
       </c>
       <c r="B372" t="n">
         <v>0</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-859937675339497473</t>
+          <t>t-786266752061669376</t>
         </is>
       </c>
       <c r="B373" t="n">
         <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-898367654507032576</t>
+          <t>t-786287404416135168</t>
         </is>
       </c>
       <c r="B374" t="n">
         <v>1</v>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-1019582623679696898</t>
+          <t>t-786588204170346496</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -5315,7 +5315,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-1022200671666401281</t>
+          <t>t-786674211528015873</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -5328,7 +5328,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-1040961500553388033</t>
+          <t>t-804010972331524096</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,7 +5341,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-1027253242261069824</t>
+          <t>t-824672856466423809</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -5354,24 +5354,24 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-642734533335453700</t>
+          <t>t-591229240311439360</t>
         </is>
       </c>
       <c r="B379" t="n">
         <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-984081755006259201</t>
+          <t>t-782797044729741312</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C380" t="n">
         <v>1</v>
@@ -5380,7 +5380,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-674956056209063937</t>
+          <t>t-589443945773535232</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -5393,59 +5393,59 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-1057306605287550976</t>
+          <t>t-699600707318587392</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-1057548272053698560</t>
+          <t>t-523536371525623808</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-589443945773535232</t>
+          <t>t-737154199411122176</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-523536371525623808</t>
+          <t>t-644488507239628800</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-644488507239628800</t>
+          <t>t-644488513442983937</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -5458,7 +5458,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-644488513442983937</t>
+          <t>t-580349296182198273</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,7 +5471,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-530728667891380225</t>
+          <t>t-676099835372654592</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -5484,50 +5484,50 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-580349296182198273</t>
+          <t>t-1051891605035241474</t>
         </is>
       </c>
       <c r="B389" t="n">
         <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-819866466162012160</t>
+          <t>t-538959622858883072</t>
         </is>
       </c>
       <c r="B390" t="n">
         <v>1</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-865447859285405696</t>
+          <t>t-595190714205634560</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-865573879527428096</t>
+          <t>t-636255173036388352</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C392" t="n">
         <v>1</v>
@@ -5536,24 +5536,24 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-875802481292439553</t>
+          <t>t-734290700469166080</t>
         </is>
       </c>
       <c r="B393" t="n">
         <v>0</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-965860574339923968</t>
+          <t>t-737049601983840256</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C394" t="n">
         <v>1</v>
@@ -5562,7 +5562,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-538674754086244353</t>
+          <t>t-737149037674147840</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -5575,46 +5575,46 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-538959622858883072</t>
+          <t>t-737191991822409729</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-591871892283334656</t>
+          <t>t-737354227509518336</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-642582982285504512</t>
+          <t>t-737535367486676992</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-737049601983840256</t>
+          <t>t-737536409473421313</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -5627,7 +5627,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-737149037674147840</t>
+          <t>t-737576761286787074</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -5640,33 +5640,33 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-737191991822409729</t>
+          <t>t-737578269373960195</t>
         </is>
       </c>
       <c r="B401" t="n">
         <v>0</v>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-737354227509518336</t>
+          <t>t-737714265268834304</t>
         </is>
       </c>
       <c r="B402" t="n">
         <v>1</v>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-737535367486676992</t>
+          <t>t-737924468329328640</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -5679,20 +5679,20 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-737536409473421313</t>
+          <t>t-737947084494622720</t>
         </is>
       </c>
       <c r="B404" t="n">
         <v>1</v>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-737576761286787074</t>
+          <t>t-738026122630332416</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -5705,46 +5705,46 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-737578269373960195</t>
+          <t>t-738039322344075265</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-737714265268834304</t>
+          <t>t-738045153693335552</t>
         </is>
       </c>
       <c r="B407" t="n">
         <v>1</v>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-737924468329328640</t>
+          <t>t-738399731303514112</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-737947084494622720</t>
+          <t>t-738417134443859970</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -5757,33 +5757,33 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-738026122630332416</t>
+          <t>t-738432094909698048</t>
         </is>
       </c>
       <c r="B410" t="n">
         <v>1</v>
       </c>
       <c r="C410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-738039322344075265</t>
+          <t>t-738465959694860289</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-738045153693335552</t>
+          <t>t-738495271307513856</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -5796,20 +5796,20 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-738399731303514112</t>
+          <t>t-738626782371426304</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-738417134443859970</t>
+          <t>t-738645010103603200</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -5822,7 +5822,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-738432094909698048</t>
+          <t>t-738707246943719426</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -5835,33 +5835,33 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-738465959694860289</t>
+          <t>t-738992446231719937</t>
         </is>
       </c>
       <c r="B416" t="n">
         <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-738495271307513856</t>
+          <t>t-739020531689721856</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-738626782371426304</t>
+          <t>t-739105047078948864</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,7 +5874,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-738645010103603200</t>
+          <t>t-739154724495228928</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -5887,7 +5887,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-738707246943719426</t>
+          <t>t-739161314166214656</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -5900,7 +5900,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-738992446231719937</t>
+          <t>t-739753236761055232</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -5913,11 +5913,11 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-739020531689721856</t>
+          <t>t-739763139001094144</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -5926,7 +5926,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-739105047078948864</t>
+          <t>t-739766081125011456</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -5939,20 +5939,20 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-739154724495228928</t>
+          <t>t-739840205935546368</t>
         </is>
       </c>
       <c r="B424" t="n">
         <v>1</v>
       </c>
       <c r="C424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-739161314166214656</t>
+          <t>t-739892598974861314</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -5965,7 +5965,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-739753236761055232</t>
+          <t>t-740068412177715200</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -5978,11 +5978,11 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-739763139001094144</t>
+          <t>t-740070843053662208</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C427" t="n">
         <v>0</v>
@@ -5991,11 +5991,11 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-739766081125011456</t>
+          <t>t-740092206627880960</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C428" t="n">
         <v>1</v>
@@ -6004,20 +6004,20 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-739840205935546368</t>
+          <t>t-740465124390080515</t>
         </is>
       </c>
       <c r="B429" t="n">
         <v>1</v>
       </c>
       <c r="C429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-739892598974861314</t>
+          <t>t-740535202582253568</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -6030,7 +6030,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-740068412177715200</t>
+          <t>t-740538191267106816</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -6043,24 +6043,24 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-740070843053662208</t>
+          <t>t-741179165198536704</t>
         </is>
       </c>
       <c r="B432" t="n">
         <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-740092206627880960</t>
+          <t>t-748093412272910336</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C433" t="n">
         <v>1</v>
@@ -6069,11 +6069,11 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-740465124390080515</t>
+          <t>t-787588682731626496</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C434" t="n">
         <v>0</v>
@@ -6082,11 +6082,11 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-740535202582253568</t>
+          <t>t-894594064582094852</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -6095,7 +6095,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-740538191267106816</t>
+          <t>t-913063437118341121</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -6108,20 +6108,20 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-741179165198536704</t>
+          <t>t-974595772317659137</t>
         </is>
       </c>
       <c r="B437" t="n">
         <v>0</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-748093412272910336</t>
+          <t>t-993438566914101248</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -6134,37 +6134,37 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-770572723777105920</t>
+          <t>t-722777139469283328</t>
         </is>
       </c>
       <c r="B439" t="n">
         <v>0</v>
       </c>
       <c r="C439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-809171890690523137</t>
+          <t>t-652506002957422592</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-834770863664795650</t>
+          <t>t-1056877276875374593</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C441" t="n">
         <v>1</v>
@@ -6173,7 +6173,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-894594064582094852</t>
+          <t>t-652334979544948736</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -6186,7 +6186,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-913063437118341121</t>
+          <t>t-669507403621277696</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -6199,7 +6199,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-954338199610019841</t>
+          <t>t-669900887607898113</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -6212,24 +6212,24 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-954407598069084160</t>
+          <t>t-684255556144619520</t>
         </is>
       </c>
       <c r="B445" t="n">
         <v>0</v>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-954798702530412546</t>
+          <t>t-823181666160144384</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C446" t="n">
         <v>1</v>
@@ -6238,20 +6238,20 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-955111272852414464</t>
+          <t>t-828957006832795648</t>
         </is>
       </c>
       <c r="B447" t="n">
         <v>1</v>
       </c>
       <c r="C447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-955374632034594816</t>
+          <t>t-917052938425716736</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -6264,11 +6264,11 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-955380505121259520</t>
+          <t>t-917054284579078144</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C449" t="n">
         <v>1</v>
@@ -6277,7 +6277,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-955409675251482624</t>
+          <t>t-917061971631108097</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -6290,24 +6290,24 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-955739643634421760</t>
+          <t>t-917080429227778048</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-955742558189162496</t>
+          <t>t-917105709682216960</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C452" t="n">
         <v>0</v>
@@ -6316,20 +6316,20 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-955766281730445313</t>
+          <t>t-565566410605473792</t>
         </is>
       </c>
       <c r="B453" t="n">
         <v>0</v>
       </c>
       <c r="C453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-955807241533304833</t>
+          <t>t-1048216558785449986</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -6342,33 +6342,33 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-956101750120857601</t>
+          <t>t-1000392026742034432</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-956220929067151360</t>
+          <t>t-1000411846237675521</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-956413340225589248</t>
+          <t>t-1000414273863069696</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -6381,20 +6381,20 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-956438932681523200</t>
+          <t>t-1000416714763505664</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-956447631714279424</t>
+          <t>t-575707186204180480</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -6407,46 +6407,46 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-956464588559671297</t>
+          <t>t-731437259828924417</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-956513066228834304</t>
+          <t>t-778479315071664128</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-977899948724379649</t>
+          <t>t-722410262058397697</t>
         </is>
       </c>
       <c r="B462" t="n">
         <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-1001548678748954624</t>
+          <t>t-862635910306856964</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -6459,11 +6459,11 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-1001557802375110657</t>
+          <t>t-862992827487309824</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C464" t="n">
         <v>1</v>
@@ -6472,11 +6472,11 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-1006399568249008128</t>
+          <t>t-863003997464080384</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C465" t="n">
         <v>1</v>
@@ -6485,63 +6485,63 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-1006422910762995712</t>
+          <t>t-863121747360571392</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-1006422931839299584</t>
+          <t>t-742289179535659008</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-1006427045709180929</t>
+          <t>t-743359058392940544</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-1006463635693203456</t>
+          <t>t-592904512131768321</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-1038002421543391232</t>
+          <t>t-595251975568109568</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C470" t="n">
         <v>1</v>
@@ -6550,7 +6550,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-1048194085624995840</t>
+          <t>t-612970627083968512</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -6563,20 +6563,20 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-545381752093806593</t>
+          <t>t-741661270017970176</t>
         </is>
       </c>
       <c r="B472" t="n">
         <v>1</v>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-800633887386988544</t>
+          <t>t-955539710214057984</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -6589,11 +6589,11 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-571286359673053184</t>
+          <t>t-955816204769390593</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C474" t="n">
         <v>1</v>
@@ -6602,7 +6602,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-571344417145135105</t>
+          <t>t-613277694457856004</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -6615,33 +6615,33 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-629936150220685312</t>
+          <t>t-867803560930627585</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-669507403621277696</t>
+          <t>t-868025997010055168</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-669900887607898113</t>
+          <t>t-868097086021095425</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -6654,20 +6654,20 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-712150675111727105</t>
+          <t>t-869075299467763714</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-801715561692626944</t>
+          <t>t-615666964451606528</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -6680,7 +6680,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-801720307002339328</t>
+          <t>t-615728570888003584</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -6693,33 +6693,33 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-1050114319227195392</t>
+          <t>t-631869539597336576</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-969482754407661568</t>
+          <t>t-632875946828255232</t>
         </is>
       </c>
       <c r="B483" t="n">
         <v>0</v>
       </c>
       <c r="C483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-570990543225950209</t>
+          <t>t-740216200379158528</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -6732,7 +6732,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-633755138834874368</t>
+          <t>t-740233298862080000</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -6745,37 +6745,37 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-670699425879191552</t>
+          <t>t-740234615814819840</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-756468934379966464</t>
+          <t>t-740250007081766912</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-837336632667877376</t>
+          <t>t-740302081416962049</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C488" t="n">
         <v>1</v>
@@ -6784,72 +6784,72 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-580822339648122880</t>
+          <t>t-636903909362167808</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-581167008596758528</t>
+          <t>t-801672831046221825</t>
         </is>
       </c>
       <c r="B490" t="n">
         <v>0</v>
       </c>
       <c r="C490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-850396935152422913</t>
+          <t>t-801706221803806720</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-1005061843843289088</t>
+          <t>t-925429606693457921</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-586494775089442816</t>
+          <t>t-664402656019005440</t>
         </is>
       </c>
       <c r="B493" t="n">
         <v>0</v>
       </c>
       <c r="C493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-587481090845179905</t>
+          <t>t-784413747376893952</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -6862,20 +6862,20 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-591228165827260416</t>
+          <t>t-1005827335977885696</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-737572670372339712</t>
+          <t>t-671784280259866624</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -6888,11 +6888,11 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-741661270017970176</t>
+          <t>t-808055620339384324</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C497" t="n">
         <v>1</v>
@@ -6901,11 +6901,11 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-895521975434530816</t>
+          <t>t-681422251338674177</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C498" t="n">
         <v>1</v>
@@ -6914,24 +6914,24 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-895525136580923394</t>
+          <t>t-943797632639610881</t>
         </is>
       </c>
       <c r="B499" t="n">
         <v>1</v>
       </c>
       <c r="C499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-624613462476337152</t>
+          <t>t-704826129178370050</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C500" t="n">
         <v>1</v>
@@ -6940,7 +6940,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-624628271745998852</t>
+          <t>t-835605594534981633</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -6953,59 +6953,59 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-1024752032350195712</t>
+          <t>t-835708598772727808</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-594811114661228544</t>
+          <t>t-897572628667478020</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-595126127343116288</t>
+          <t>t-734423204488445952</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-949260261575229441</t>
+          <t>t-1003603539539742720</t>
         </is>
       </c>
       <c r="B505" t="n">
         <v>0</v>
       </c>
       <c r="C505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-609461898141147136</t>
+          <t>t-737703959993913344</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -7018,7 +7018,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-613277694457856004</t>
+          <t>t-737753796202385408</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -7031,20 +7031,20 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-760350969154723840</t>
+          <t>t-737755886211477504</t>
         </is>
       </c>
       <c r="B508" t="n">
         <v>1</v>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-1017675550318612480</t>
+          <t>t-737784335567364096</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -7057,7 +7057,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-740216200379158528</t>
+          <t>t-737884729626791936</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -7070,7 +7070,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-740233298862080000</t>
+          <t>t-737979350088323072</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -7083,63 +7083,63 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-740234615814819840</t>
+          <t>t-952868151414403072</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-740250007081766912</t>
+          <t>t-956876178509516800</t>
         </is>
       </c>
       <c r="B513" t="n">
         <v>1</v>
       </c>
       <c r="C513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-740302081416962049</t>
+          <t>t-958391208602193920</t>
         </is>
       </c>
       <c r="B514" t="n">
         <v>1</v>
       </c>
       <c r="C514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-652148120952803329</t>
+          <t>t-902928093131808770</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-664402656019005440</t>
+          <t>t-740249467828482048</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C516" t="n">
         <v>1</v>
@@ -7148,7 +7148,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-1004612435792232448</t>
+          <t>t-860462128263811072</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -7161,7 +7161,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-674905913438769153</t>
+          <t>t-760420119554076674</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -7174,46 +7174,46 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-692403922451992576</t>
+          <t>t-775632377695600641</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-829095437466533888</t>
+          <t>t-834314501134614528</t>
         </is>
       </c>
       <c r="B520" t="n">
         <v>1</v>
       </c>
       <c r="C520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-781871738888065024</t>
+          <t>t-834805481759789056</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-897572628667478020</t>
+          <t>t-844564313012670464</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -7226,50 +7226,50 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-852243165302198273</t>
+          <t>t-862454112507580416</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-734423204488445952</t>
+          <t>t-913806353851969537</t>
         </is>
       </c>
       <c r="B524" t="n">
         <v>1</v>
       </c>
       <c r="C524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-956932857389309953</t>
+          <t>t-949248780280516608</t>
         </is>
       </c>
       <c r="B525" t="n">
         <v>1</v>
       </c>
       <c r="C525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-957576777848717312</t>
+          <t>t-988749833476325376</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C526" t="n">
         <v>1</v>
@@ -7278,46 +7278,46 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-979633616404844544</t>
+          <t>t-1051774073523634182</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-751418791951790080</t>
+          <t>t-1052071039923044352</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-890865444307042304</t>
+          <t>t-1052145118726238209</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-1003603539539742720</t>
+          <t>t-1052182549513035776</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -7330,20 +7330,20 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-884308996835991554</t>
+          <t>t-676725475671085057</t>
         </is>
       </c>
       <c r="B531" t="n">
         <v>1</v>
       </c>
       <c r="C531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-933719239126642689</t>
+          <t>t-498746062224375809</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -7356,46 +7356,46 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-956876178509516800</t>
+          <t>t-499104320717996032</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-738250548865032192</t>
+          <t>t-510001639617351681</t>
         </is>
       </c>
       <c r="B534" t="n">
         <v>1</v>
       </c>
       <c r="C534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-738751926372827136</t>
+          <t>t-532541340023017473</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-1002274254954647552</t>
+          <t>t-550997963590610944</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -7408,7 +7408,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-1002283218085863430</t>
+          <t>t-551059868657152002</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -7421,20 +7421,20 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-740666936263118848</t>
+          <t>t-551164779646038017</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-743445326611251200</t>
+          <t>t-552328482282553344</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -7447,24 +7447,24 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-746386418465914880</t>
+          <t>t-552381413899898881</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-748138953241464832</t>
+          <t>t-552754433155928064</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C541" t="n">
         <v>0</v>
@@ -7473,7 +7473,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-753159226390962176</t>
+          <t>t-552860760968138752</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -7486,24 +7486,24 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-952704809529851906</t>
+          <t>t-552960294360977408</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-760420119554076674</t>
+          <t>t-553046169975148544</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C544" t="n">
         <v>0</v>
@@ -7512,11 +7512,11 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-766238666905747456</t>
+          <t>t-553111267569713154</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C545" t="n">
         <v>1</v>
@@ -7525,37 +7525,37 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-834805481759789056</t>
+          <t>t-553535305601392640</t>
         </is>
       </c>
       <c r="B546" t="n">
         <v>1</v>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-989189175357276160</t>
+          <t>t-556228745443282944</t>
         </is>
       </c>
       <c r="B547" t="n">
         <v>0</v>
       </c>
       <c r="C547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-861335479475634176</t>
+          <t>t-575891615593721856</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C548" t="n">
         <v>0</v>
@@ -7564,24 +7564,24 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-883552231022366723</t>
+          <t>t-616630261191716864</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-892499939137335296</t>
+          <t>t-643644357350948864</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C550" t="n">
         <v>1</v>
@@ -7590,11 +7590,11 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-904822909704822785</t>
+          <t>t-695965752088723456</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C551" t="n">
         <v>1</v>
@@ -7603,24 +7603,24 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-949166298210082816</t>
+          <t>t-695968588012752896</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-949248780280516608</t>
+          <t>t-697436431816355840</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C553" t="n">
         <v>0</v>
@@ -7629,37 +7629,37 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-949999091047477249</t>
+          <t>t-697627864380809216</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-953922137156411392</t>
+          <t>t-698371050527023104</t>
         </is>
       </c>
       <c r="B555" t="n">
         <v>0</v>
       </c>
       <c r="C555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-977185697940623360</t>
+          <t>t-698770244375093249</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C556" t="n">
         <v>0</v>
@@ -7668,24 +7668,24 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-986982915262308353</t>
+          <t>t-711861360414433281</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-988323500330045442</t>
+          <t>t-711871478451417088</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C558" t="n">
         <v>1</v>
@@ -7694,7 +7694,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-992783370114433024</t>
+          <t>t-711899328244113408</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -7707,59 +7707,59 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-1003736255149027328</t>
+          <t>t-712616490994892801</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-1030184521969410055</t>
+          <t>t-755613145079484416</t>
         </is>
       </c>
       <c r="B561" t="n">
         <v>1</v>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-1051774073523634182</t>
+          <t>t-788186519307563010</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-1052071039923044352</t>
+          <t>t-814010823689408512</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-1052145118726238209</t>
+          <t>t-910155731134853120</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -7772,20 +7772,20 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-1052182549513035776</t>
+          <t>t-910165111620329472</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-666296658595069952</t>
+          <t>t-914672240901287936</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -7798,24 +7798,24 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-666325159947563008</t>
+          <t>t-935721877053505536</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-676725475671085057</t>
+          <t>t-944057571853287424</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C568" t="n">
         <v>1</v>
@@ -7824,11 +7824,11 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-786169556586770432</t>
+          <t>t-950179252325859328</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C569" t="n">
         <v>1</v>
@@ -7837,7 +7837,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-931841011340296192</t>
+          <t>t-950592034162774021</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -7850,20 +7850,20 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-500549350234554368</t>
+          <t>t-950680110948007937</t>
         </is>
       </c>
       <c r="B571" t="n">
         <v>0</v>
       </c>
       <c r="C571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-549142719973445632</t>
+          <t>t-951371471217090560</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -7876,7 +7876,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-549750044099088384</t>
+          <t>t-952033538005716993</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -7889,50 +7889,50 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-549858427787153410</t>
+          <t>t-952059671258447872</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-549861279825817601</t>
+          <t>t-952061652182028289</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-566257094865981440</t>
+          <t>t-952118349386850304</t>
         </is>
       </c>
       <c r="B576" t="n">
         <v>0</v>
       </c>
       <c r="C576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-575891615593721856</t>
+          <t>t-953168990901284865</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C577" t="n">
         <v>0</v>
@@ -7941,20 +7941,20 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-616630261191716864</t>
+          <t>t-978263707544305664</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-620843348505432064</t>
+          <t>t-1061409798053224448</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -7967,33 +7967,33 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-645961089671405568</t>
+          <t>t-1061535382406348800</t>
         </is>
       </c>
       <c r="B580" t="n">
         <v>1</v>
       </c>
       <c r="C580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-674391856298385408</t>
+          <t>t-675258412049956865</t>
         </is>
       </c>
       <c r="B581" t="n">
         <v>1</v>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-674458539629219844</t>
+          <t>t-806390063244410880</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -8006,24 +8006,24 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-719019371499130881</t>
+          <t>t-806499176066453505</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-730666173340209152</t>
+          <t>t-823758777857908736</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C584" t="n">
         <v>1</v>
@@ -8032,33 +8032,33 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-736860584470159360</t>
+          <t>t-823809561622695937</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-740084104088199168</t>
+          <t>t-823868915621052416</t>
         </is>
       </c>
       <c r="B586" t="n">
         <v>1</v>
       </c>
       <c r="C586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-796846317632790528</t>
+          <t>t-824113067696930816</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -8071,7 +8071,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-798050241861840896</t>
+          <t>t-824154025864167424</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -8084,33 +8084,33 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-798099061475684352</t>
+          <t>t-824160171534467072</t>
         </is>
       </c>
       <c r="B589" t="n">
         <v>1</v>
       </c>
       <c r="C589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-815395045314560000</t>
+          <t>t-825053893184753664</t>
         </is>
       </c>
       <c r="B590" t="n">
         <v>1</v>
       </c>
       <c r="C590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-815855888129028096</t>
+          <t>t-825136994833428480</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -8123,11 +8123,11 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-815865821570289668</t>
+          <t>t-825930607427416064</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C592" t="n">
         <v>1</v>
@@ -8136,20 +8136,20 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-815882427159678976</t>
+          <t>t-827493643661381632</t>
         </is>
       </c>
       <c r="B593" t="n">
         <v>1</v>
       </c>
       <c r="C593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-815960345336545280</t>
+          <t>t-857957864354086912</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -8162,7 +8162,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-816280699388841984</t>
+          <t>t-857974981891719168</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -8175,11 +8175,11 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-831833976029454338</t>
+          <t>t-914680114595602432</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C596" t="n">
         <v>1</v>
@@ -8188,7 +8188,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-852554541803417600</t>
+          <t>t-916572694472155137</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -8201,33 +8201,33 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-854250685419986949</t>
+          <t>t-985916719981060097</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-854262837673246720</t>
+          <t>t-985984041508720641</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-921445800072298496</t>
+          <t>t-1015491573092528128</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -8240,7 +8240,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-922085813818658816</t>
+          <t>t-503088287381082112</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -8253,24 +8253,24 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-935721877053505536</t>
+          <t>t-527780384159703040</t>
         </is>
       </c>
       <c r="B602" t="n">
         <v>0</v>
       </c>
       <c r="C602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-944057571853287424</t>
+          <t>t-533912579676975104</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C603" t="n">
         <v>1</v>
@@ -8279,7 +8279,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-978263707544305664</t>
+          <t>t-545488523856338944</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -8292,11 +8292,11 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-1061409798053224448</t>
+          <t>t-546829406539243520</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C605" t="n">
         <v>1</v>
@@ -8305,20 +8305,20 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-1061535382406348800</t>
+          <t>t-546846288554500096</t>
         </is>
       </c>
       <c r="B606" t="n">
         <v>1</v>
       </c>
       <c r="C606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-706517570451427328</t>
+          <t>t-547603292180578305</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -8331,46 +8331,46 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-827493643661381632</t>
+          <t>t-547621920103862272</t>
         </is>
       </c>
       <c r="B608" t="n">
         <v>1</v>
       </c>
       <c r="C608" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-832449416082579456</t>
+          <t>t-547636294059184128</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-922122902136172545</t>
+          <t>t-547637054578769920</t>
         </is>
       </c>
       <c r="B610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-533912579676975104</t>
+          <t>t-573022010348982272</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,20 +8383,20 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-561132509098827778</t>
+          <t>t-580217985706528769</t>
         </is>
       </c>
       <c r="B612" t="n">
         <v>1</v>
       </c>
       <c r="C612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-573022010348982272</t>
+          <t>t-669092226840981504</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -8409,7 +8409,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-685773216275533824</t>
+          <t>t-708275780988473345</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,7 +8422,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-732021013433724928</t>
+          <t>t-709001129091174403</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -8435,11 +8435,11 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-732494989838540800</t>
+          <t>t-709281433978687488</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C616" t="n">
         <v>1</v>
@@ -8448,7 +8448,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-732496065941798912</t>
+          <t>t-713640428369612800</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -8461,7 +8461,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-733931111152123906</t>
+          <t>t-713641932795215874</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,7 +8474,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-734714075603718144</t>
+          <t>t-713645035460251648</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,7 +8487,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-734767651981905921</t>
+          <t>t-713649642907406336</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -8500,7 +8500,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-735043937040093185</t>
+          <t>t-713682083688767488</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,7 +8513,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-789409624138985476</t>
+          <t>t-714598783724597248</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -8526,20 +8526,20 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-789409631646785537</t>
+          <t>t-714729459107119104</t>
         </is>
       </c>
       <c r="B623" t="n">
         <v>1</v>
       </c>
       <c r="C623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-834984646416842753</t>
+          <t>t-715080311059517440</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,7 +8552,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-834986851718946816</t>
+          <t>t-721601854761619457</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,7 +8565,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-835051963096121344</t>
+          <t>t-721697193174798336</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -8578,20 +8578,20 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-838333127739260928</t>
+          <t>t-756020759726727169</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-838721199874048000</t>
+          <t>t-838333127739260928</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,11 +8604,11 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-845583720950128640</t>
+          <t>t-838721199874048000</t>
         </is>
       </c>
       <c r="B629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C629" t="n">
         <v>1</v>
@@ -8617,24 +8617,24 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-880004628884013057</t>
+          <t>t-839825336552468480</t>
         </is>
       </c>
       <c r="B630" t="n">
         <v>1</v>
       </c>
       <c r="C630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-960348165114273792</t>
+          <t>t-845583720950128640</t>
         </is>
       </c>
       <c r="B631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C631" t="n">
         <v>1</v>
@@ -8643,24 +8643,24 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-965199790966415360</t>
+          <t>t-922601399271112704</t>
         </is>
       </c>
       <c r="B632" t="n">
         <v>0</v>
       </c>
       <c r="C632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-987647411144220672</t>
+          <t>t-586217765666623488</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C633" t="n">
         <v>1</v>
@@ -8669,20 +8669,20 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-1024894521568448513</t>
+          <t>t-930049646444945408</t>
         </is>
       </c>
       <c r="B634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-563978477183840256</t>
+          <t>t-930646694097645568</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,11 +8695,11 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-831995329318772736</t>
+          <t>t-538727466139803648</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C636" t="n">
         <v>1</v>
@@ -8708,11 +8708,11 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-934049646694998016</t>
+          <t>t-550981789649735680</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C637" t="n">
         <v>0</v>
@@ -8721,7 +8721,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-961643380684959749</t>
+          <t>t-689784474884648961</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,7 +8734,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-661588229892673536</t>
+          <t>t-795674749028462592</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,7 +8747,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-712147646559879168</t>
+          <t>t-822370054381522945</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,20 +8760,20 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-768634144851013633</t>
+          <t>t-853130130432176128</t>
         </is>
       </c>
       <c r="B641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-769506262551715840</t>
+          <t>t-989542585978052610</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -8786,7 +8786,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-822370054381522945</t>
+          <t>t-1032843605826621440</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,20 +8799,20 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-853130130432176128</t>
+          <t>t-780295387017949184</t>
         </is>
       </c>
       <c r="B644" t="n">
         <v>0</v>
       </c>
       <c r="C644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-1032843605826621440</t>
+          <t>t-971295308981383168</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,11 +8825,11 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-740483903366926337</t>
+          <t>t-525880451999617025</t>
         </is>
       </c>
       <c r="B646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C646" t="n">
         <v>0</v>
@@ -8838,46 +8838,46 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-799444908029284352</t>
+          <t>t-527311291191263232</t>
         </is>
       </c>
       <c r="B647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-799480577057583104</t>
+          <t>t-555323393890058240</t>
         </is>
       </c>
       <c r="B648" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C648" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-919610638351003649</t>
+          <t>t-555327376440053760</t>
         </is>
       </c>
       <c r="B649" t="n">
         <v>1</v>
       </c>
       <c r="C649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-919611818183503872</t>
+          <t>t-716900054133399553</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,7 +8890,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-919614704967757825</t>
+          <t>t-825956164366172160</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,20 +8903,20 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-919712337681985537</t>
+          <t>t-825956302023163905</t>
         </is>
       </c>
       <c r="B652" t="n">
         <v>1</v>
       </c>
       <c r="C652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-919728404907167744</t>
+          <t>t-825967811814125568</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,7 +8929,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-919751765871886336</t>
+          <t>t-825983840988467200</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,33 +8942,33 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-919766847666274304</t>
+          <t>t-832183739346063361</t>
         </is>
       </c>
       <c r="B655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-919943414766063617</t>
+          <t>t-532101195737735168</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-920179252292739072</t>
+          <t>t-532807839664730113</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -8981,33 +8981,33 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-920416544319926272</t>
+          <t>t-545394272619331584</t>
         </is>
       </c>
       <c r="B658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-545394272619331584</t>
+          <t>t-558428892898131968</t>
         </is>
       </c>
       <c r="B659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-564676313139531776</t>
+          <t>t-558596887519850496</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -9020,11 +9020,11 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-564736068306878464</t>
+          <t>t-685036854010339328</t>
         </is>
       </c>
       <c r="B661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C661" t="n">
         <v>1</v>
@@ -9033,11 +9033,11 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-703773712068116482</t>
+          <t>t-689731867570900992</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C662" t="n">
         <v>0</v>
@@ -9046,7 +9046,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-703855663269556224</t>
+          <t>t-694769781573050368</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -9059,24 +9059,24 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-703940411761389571</t>
+          <t>t-697703131493355520</t>
         </is>
       </c>
       <c r="B664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-961453081543065600</t>
+          <t>t-698358832959873025</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C665" t="n">
         <v>1</v>
@@ -9085,20 +9085,20 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-547033780322455552</t>
+          <t>t-550823263941574657</t>
         </is>
       </c>
       <c r="B666" t="n">
         <v>1</v>
       </c>
       <c r="C666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-547601049230782464</t>
+          <t>t-816403303852425216</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,7 +9111,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-548131100095442945</t>
+          <t>t-536910791295778816</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,7 +9124,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-681630649879543808</t>
+          <t>t-928119470215847936</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,24 +9137,24 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-734168300121395200</t>
+          <t>t-540776934658277377</t>
         </is>
       </c>
       <c r="B670" t="n">
         <v>0</v>
       </c>
       <c r="C670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-803451448700780544</t>
+          <t>t-636337860757483520</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C671" t="n">
         <v>1</v>
@@ -9163,24 +9163,24 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-803454039333556224</t>
+          <t>t-708854826730295296</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-803455995494027264</t>
+          <t>t-709944298301628416</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C673" t="n">
         <v>1</v>
@@ -9189,24 +9189,24 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-803466221962215424</t>
+          <t>t-773077201063407617</t>
         </is>
       </c>
       <c r="B674" t="n">
         <v>1</v>
       </c>
       <c r="C674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-803470959600467968</t>
+          <t>t-776553403992252416</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C675" t="n">
         <v>1</v>
@@ -9215,7 +9215,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-924811540154540032</t>
+          <t>t-776953291594866688</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,7 +9228,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-924943312192073729</t>
+          <t>t-776996787567464448</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -9241,7 +9241,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-935391382331588609</t>
+          <t>t-777018247778631680</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -9254,7 +9254,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-935397608851324931</t>
+          <t>t-777139839556648960</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -9267,11 +9267,11 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-935407791757389824</t>
+          <t>t-777163982893223936</t>
         </is>
       </c>
       <c r="B680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C680" t="n">
         <v>1</v>
@@ -9280,24 +9280,24 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-540747270207991808</t>
+          <t>t-859771332908777474</t>
         </is>
       </c>
       <c r="B681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-695999176518184960</t>
+          <t>t-965551093982769152</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C682" t="n">
         <v>1</v>
@@ -9306,20 +9306,20 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-708854826730295296</t>
+          <t>t-1060932314279170048</t>
         </is>
       </c>
       <c r="B683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-737185619730780161</t>
+          <t>t-544801968703557632</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,11 +9332,11 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-745418927845453825</t>
+          <t>t-597692277847298049</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C685" t="n">
         <v>1</v>
@@ -9345,11 +9345,11 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-753418052503502848</t>
+          <t>t-824143990274588672</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C686" t="n">
         <v>1</v>
@@ -9358,7 +9358,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-764336375894306816</t>
+          <t>t-966644863226732544</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,20 +9371,20 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-764417813717086208</t>
+          <t>t-966649635170238465</t>
         </is>
       </c>
       <c r="B688" t="n">
         <v>1</v>
       </c>
       <c r="C688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-820620984231174145</t>
+          <t>t-599804476774436864</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,11 +9397,11 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-544020486527528960</t>
+          <t>t-814411097864159233</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C690" t="n">
         <v>1</v>
@@ -9410,20 +9410,20 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-567587172367077376</t>
+          <t>t-814414402203983872</t>
         </is>
       </c>
       <c r="B691" t="n">
         <v>1</v>
       </c>
       <c r="C691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-930542567199997958</t>
+          <t>t-814417111921479680</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,7 +9436,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-597692277847298049</t>
+          <t>t-814418757657296896</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,24 +9449,24 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-812248571802025984</t>
+          <t>t-814543705935736832</t>
         </is>
       </c>
       <c r="B694" t="n">
         <v>1</v>
       </c>
       <c r="C694" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-557074144505114625</t>
+          <t>t-658189046523412480</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C695" t="n">
         <v>1</v>
@@ -9475,7 +9475,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-814411097864159233</t>
+          <t>t-808956641743732736</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,7 +9488,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-814414402203983872</t>
+          <t>t-809733108471889920</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -9501,7 +9501,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-814417111921479680</t>
+          <t>t-832028212376985600</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,7 +9514,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-814418757657296896</t>
+          <t>t-832064333504933888</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,7 +9527,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-814543705935736832</t>
+          <t>t-935764445632061440</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,37 +9540,37 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-1027038929319411712</t>
+          <t>t-940363500475465728</t>
         </is>
       </c>
       <c r="B701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-1027057881365901312</t>
+          <t>t-962542177514500096</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-1027179632922046467</t>
+          <t>t-895185499131961344</t>
         </is>
       </c>
       <c r="B703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C703" t="n">
         <v>1</v>
@@ -9579,24 +9579,24 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-558523740888109056</t>
+          <t>t-936534965277294597</t>
         </is>
       </c>
       <c r="B704" t="n">
         <v>1</v>
       </c>
       <c r="C704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-658189046523412480</t>
+          <t>t-936606274795462656</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C705" t="n">
         <v>1</v>
@@ -9605,7 +9605,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-832028212376985600</t>
+          <t>t-563225583400648704</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -9618,7 +9618,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-832064333504933888</t>
+          <t>t-701328466483027968</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -9631,14 +9631,14 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-698712295900229633</t>
+          <t>t-580384120221487104</t>
         </is>
       </c>
       <c r="B708" t="n">
         <v>0</v>
       </c>
       <c r="C708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709">
@@ -9657,7 +9657,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-805321168580395008</t>
+          <t>t-932461262268661760</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -9670,7 +9670,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-870645957704265729</t>
+          <t>t-932590015711993858</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -9683,11 +9683,11 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-870651401311014912</t>
+          <t>t-932596112241786880</t>
         </is>
       </c>
       <c r="B712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C712" t="n">
         <v>1</v>
@@ -9696,11 +9696,11 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-905053100729356288</t>
+          <t>t-932690981908074496</t>
         </is>
       </c>
       <c r="B713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C713" t="n">
         <v>1</v>
@@ -9709,7 +9709,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-1004628011856089090</t>
+          <t>t-932881287005835264</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,11 +9722,11 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-674136729771577344</t>
+          <t>t-950713527123066881</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C715" t="n">
         <v>1</v>
@@ -9735,7 +9735,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-729241413867556864</t>
+          <t>t-998840776758120448</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -9748,7 +9748,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-753509017096364033</t>
+          <t>t-1004628011856089090</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -9761,11 +9761,11 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-997052112126136320</t>
+          <t>t-566151747232489472</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C718" t="n">
         <v>1</v>
@@ -9774,20 +9774,20 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-833819761821757440</t>
+          <t>t-642718104875732992</t>
         </is>
       </c>
       <c r="B719" t="n">
         <v>1</v>
       </c>
       <c r="C719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-883957999576002561</t>
+          <t>t-753509017096364033</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -9800,7 +9800,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-935417453286326277</t>
+          <t>t-845628167855357953</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,7 +9813,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-610619808913076224</t>
+          <t>t-568062001399746560</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,11 +9826,11 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-796860246736052224</t>
+          <t>t-765452831297970176</t>
         </is>
       </c>
       <c r="B723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C723" t="n">
         <v>1</v>
@@ -9839,37 +9839,37 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-877794875583934464</t>
+          <t>t-863292024522395649</t>
         </is>
       </c>
       <c r="B724" t="n">
         <v>0</v>
       </c>
       <c r="C724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-1062157078439968770</t>
+          <t>t-685863458978443264</t>
         </is>
       </c>
       <c r="B725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-820218394255339521</t>
+          <t>t-877794875583934464</t>
         </is>
       </c>
       <c r="B726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C726" t="n">
         <v>1</v>
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-829258775257346048</t>
+          <t>t-1062157078439968770</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-829280839464845312</t>
+          <t>t-691264325659422721</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-829291437292396544</t>
+          <t>t-691280497184362497</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-829294998201970688</t>
+          <t>t-812509278762242048</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-829512724761620480</t>
+          <t>t-964014223184375808</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,7 +9943,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-733197295139741697</t>
+          <t>t-946177924222222336</t>
         </is>
       </c>
       <c r="B732" t="n">
@@ -9956,52 +9956,13 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>t-760724447745699841</t>
+          <t>t-928096679089209344</t>
         </is>
       </c>
       <c r="B733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C733" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>t-946177924222222336</t>
-        </is>
-      </c>
-      <c r="B734" t="n">
-        <v>1</v>
-      </c>
-      <c r="C734" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" t="inlineStr">
-        <is>
-          <t>t-816256005461987328</t>
-        </is>
-      </c>
-      <c r="B735" t="n">
-        <v>1</v>
-      </c>
-      <c r="C735" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>t-928096679089209344</t>
-        </is>
-      </c>
-      <c r="B736" t="n">
-        <v>0</v>
-      </c>
-      <c r="C736" t="n">
         <v>1</v>
       </c>
     </row>
